--- a/reclasses.xlsx
+++ b/reclasses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://appriver3651006727.sharepoint.com/sites/TechTeam/Shared Documents/EPA Fiscal Impact/task1_data_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{E6038914-BFE0-4B43-9FF8-67E1D7D3F88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA7BA02-AF1A-4777-A32B-BA88A07F189A}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{E6038914-BFE0-4B43-9FF8-67E1D7D3F88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D7E810-4FDF-4370-BD52-6CCEEFE796CF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAD" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="NLCD" sheetId="2" r:id="rId3"/>
     <sheet name="ROADS_LANES" sheetId="4" r:id="rId4"/>
     <sheet name="ROADS_CLASS" sheetId="5" r:id="rId5"/>
+    <sheet name="ROADS_ATTRIBUTES" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,8 +35,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8D08B5B7-4533-4D98-9053-84EB2581DF32}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8D08B5B7-4533-4D98-9053-84EB2581DF32}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    specs apply where speed category is &lt;= number in row</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C43CB7D6-D5DD-400B-ADBE-6944A2DB6BD8}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C43CB7D6-D5DD-400B-ADBE-6944A2DB6BD8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Attributes reported would be broken out by FUNCTIONAL_CLASS</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
   <si>
     <t>GAP_Sts</t>
   </si>
@@ -73,6 +110,54 @@
     <t>Unassigned</t>
   </si>
   <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Open water</t>
+  </si>
+  <si>
+    <t>Perennial ice/snow</t>
+  </si>
+  <si>
+    <t>Developed, open space</t>
+  </si>
+  <si>
+    <t>Developed, low intensity</t>
+  </si>
+  <si>
+    <t>Developed, medium intensity</t>
+  </si>
+  <si>
+    <t>Developed, high intensity</t>
+  </si>
+  <si>
+    <t>Deciduous forest</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Mixed forest</t>
+  </si>
+  <si>
+    <t>Shrub/scrub</t>
+  </si>
+  <si>
+    <t>Grassland/herbaceous</t>
+  </si>
+  <si>
+    <t>Pasture/hay</t>
+  </si>
+  <si>
+    <t>Cultivated crops</t>
+  </si>
+  <si>
+    <t>Woody wetlands</t>
+  </si>
+  <si>
+    <t>Emergent herbaceous wetlands</t>
+  </si>
+  <si>
     <t>The 'GAP Status Code' categories:</t>
   </si>
   <si>
@@ -121,98 +206,161 @@
     <t>NLCD</t>
   </si>
   <si>
-    <t>LC</t>
-  </si>
-  <si>
     <t>RECLASS_SF</t>
   </si>
   <si>
     <t>RECLASS_MF</t>
   </si>
   <si>
-    <t>Open water</t>
-  </si>
-  <si>
-    <t>Perennial ice/snow</t>
-  </si>
-  <si>
-    <t>Developed, open space</t>
-  </si>
-  <si>
-    <t>Developed, low intensity</t>
-  </si>
-  <si>
-    <t>Developed, medium intensity</t>
-  </si>
-  <si>
-    <t>Developed, high intensity</t>
+    <t>LANE_CATEGORY</t>
+  </si>
+  <si>
+    <t>FUNCTIONAL_CLASS</t>
+  </si>
+  <si>
+    <t>Limited Access</t>
+  </si>
+  <si>
+    <t>Trunks</t>
+  </si>
+  <si>
+    <t>Arterial</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>CAT_DESC</t>
+  </si>
+  <si>
+    <t>LANE_COUNT</t>
   </si>
   <si>
     <t>Bare rock/sand/clay</t>
   </si>
   <si>
-    <t>Deciduous forest</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Shrub/scrub</t>
-  </si>
-  <si>
-    <t>Grassland/herbaceous</t>
-  </si>
-  <si>
-    <t>Pasture/hay</t>
-  </si>
-  <si>
-    <t>Cultivated crops</t>
-  </si>
-  <si>
-    <t>Woody wetlands</t>
-  </si>
-  <si>
-    <t>Emergent herbaceous wetlands</t>
-  </si>
-  <si>
-    <t>LANE_CATEGORY</t>
-  </si>
-  <si>
-    <t>LANE_COUNT</t>
-  </si>
-  <si>
-    <t>WIDTH</t>
-  </si>
-  <si>
-    <t>FUNCTIONAL_CLASS</t>
-  </si>
-  <si>
-    <t>CAT_DESC</t>
-  </si>
-  <si>
-    <t>Limited Access</t>
-  </si>
-  <si>
-    <t>Trunks</t>
-  </si>
-  <si>
-    <t>Arterial</t>
-  </si>
-  <si>
-    <t>Collector</t>
-  </si>
-  <si>
-    <t>Local</t>
+    <t>TRAVEL_DIRECTION</t>
+  </si>
+  <si>
+    <t>SPEED_CATEGORY</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>LANE_WIDTH</t>
+  </si>
+  <si>
+    <t>DIR_FACTOR</t>
+  </si>
+  <si>
+    <t>TOTAL_WIDTH</t>
+  </si>
+  <si>
+    <t>(any other value)</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Proposed Use</t>
+  </si>
+  <si>
+    <t>BRIDGE</t>
+  </si>
+  <si>
+    <t>TUNNEL</t>
+  </si>
+  <si>
+    <t>PAVED</t>
+  </si>
+  <si>
+    <t>PRIVATE</t>
+  </si>
+  <si>
+    <t>PUBLIC_ACCESS</t>
+  </si>
+  <si>
+    <t>CONTROLLED_ACCESS</t>
+  </si>
+  <si>
+    <t>LIMITED_ACCESS_ROAD</t>
+  </si>
+  <si>
+    <t>BOAT_FERRY</t>
+  </si>
+  <si>
+    <t>RAIL_FERRY</t>
+  </si>
+  <si>
+    <t>Exclude from road area calculations</t>
+  </si>
+  <si>
+    <t>Sum road area that is bridge or tunnel</t>
+  </si>
+  <si>
+    <t>Sum road area that is controlled or limited access</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Sum road area that is tollway</t>
+  </si>
+  <si>
+    <t>TOLLWAY</t>
+  </si>
+  <si>
+    <t>Sum length of ferry (regardless of class)</t>
+  </si>
+  <si>
+    <t>Include in total road area estimate</t>
+  </si>
+  <si>
+    <t>BRIDGE/TUNNEL</t>
+  </si>
+  <si>
+    <t>CTRL/LMTD ACCCES</t>
+  </si>
+  <si>
+    <t>FERRY</t>
+  </si>
+  <si>
+    <t>Exclude "N" from road area calculations</t>
+  </si>
+  <si>
+    <t>Exclude "Y" from road area calculations</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Exclusion criterion</t>
+  </si>
+  <si>
+    <t>Tabulate in separate field</t>
+  </si>
+  <si>
+    <t>Field units</t>
+  </si>
+  <si>
+    <t>Sq Meters</t>
+  </si>
+  <si>
+    <t>Meters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +494,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="36">
@@ -547,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -662,6 +816,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -707,7 +879,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -723,6 +895,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -780,6 +963,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alex Bell" id="{BF953949-2823-4549-A485-B32EADC5C4A0}" userId="S::abell@citiesthatwork.com::a37071a1-fb16-4121-9e9f-5ef1dd7da0d2" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,22 +1266,38 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2021-08-24T18:24:55.60" personId="{BF953949-2823-4549-A485-B32EADC5C4A0}" id="{8D08B5B7-4533-4D98-9053-84EB2581DF32}">
+    <text>specs apply where speed category is &lt;= number in row</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2021-08-24T18:50:27.34" personId="{BF953949-2823-4549-A485-B32EADC5C4A0}" id="{C43CB7D6-D5DD-400B-ADBE-6944A2DB6BD8}">
+    <text>Attributes reported would be broken out by FUNCTIONAL_CLASS</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1114,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1125,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1136,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1147,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1158,7 +1363,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1169,7 +1374,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1180,7 +1385,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1191,7 +1396,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1202,7 +1407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1213,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1224,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1235,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1246,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1257,7 +1462,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1268,7 +1473,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1279,7 +1484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1290,7 +1495,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1301,7 +1506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1312,7 +1517,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1336,87 +1541,87 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="188.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="188.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="28.9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="28.9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="28.9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="43.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="28.9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="28.9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="28.9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="28.9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="28.9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="28.9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="28.9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="28.9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1429,36 +1634,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1467,12 +1672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1481,12 +1686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0.9</v>
@@ -1495,12 +1700,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1509,12 +1714,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0.7</v>
@@ -1523,12 +1728,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -1537,12 +1742,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1E-3</v>
@@ -1551,12 +1756,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0.08</v>
@@ -1565,12 +1770,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>0.08</v>
@@ -1579,12 +1784,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0.08</v>
@@ -1593,12 +1798,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1E-3</v>
@@ -1607,12 +1812,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>1E-3</v>
@@ -1621,12 +1826,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>1E-3</v>
@@ -1635,12 +1840,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>0.1</v>
@@ -1649,12 +1854,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>1E-3</v>
@@ -1663,12 +1868,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1683,65 +1888,2482 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778D7F2F-D6E7-4E05-89F0-A1EE58B83CAF}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778D7F2F-D6E7-4E05-89F0-A1EE58B83CAF}">
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>E2*G2*D2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f>E3*G3*D3</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>E4*G4*D4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>E5*G5*D5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f>E6*G6*D6</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>E7*G7*D7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>E8*G8*D8</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>E9*G9*D9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>11.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>E10*G10*D10</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>E11*G11*D11</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>E12*G12*D12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>E13*G13*D13</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f>E14*G14*D14</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>E15*G15*D15</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>11.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f>E16*G16*D16</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>E17*G17*D17</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>E18*G18*D18</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>11.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>E19*G19*D19</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>11.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f>E20*G20*D20</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f>E21*G21*D21</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>E22*G22*D22</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>11.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>E23*G23*D23</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f>E24*G24*D24</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f>E25*G25*D25</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f>E26*G26*D26</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f>E27*G27*D27</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f>E28*G28*D28</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>E29*G29*D29</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>E30*G30*D30</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>E31*G31*D31</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="E32" s="6">
+        <v>14</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f>E32*G32*D32</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="6">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <f>E33*G33*D33</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>E34*G34*D34</f>
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="E35" s="6">
+        <v>14</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f>E35*G35*D35</f>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <f>E36*G36*D36</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>E37*G37*D37</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="E38" s="6">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="6">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f>E38*G38*D38</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f>E39*G39*D39</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="E40" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f>E40*G40*D40</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="E41" s="6">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f>E41*G41*D41</f>
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" s="6">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E42" s="6">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f>E42*G42*D42</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>2</v>
+      </c>
+      <c r="B43" s="6">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="E43" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f>E43*G43*D43</f>
+        <v>25.875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E44" s="6">
+        <v>12</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="6">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f>E44*G44*D44</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6">
+        <v>5</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="E45" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="F45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f>E45*G45*D45</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f>E46*G46*D46</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>3</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E47" s="6">
+        <v>12</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f>E47*G47*D47</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6">
+        <v>5</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="E48" s="6">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f>E48*G48*D48</f>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>3</v>
+      </c>
+      <c r="B49" s="6">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f>E49*G49*D49</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E50" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f>E50*G50*D50</f>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6">
+        <v>5</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>11</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <f>E51*G51*D51</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="6">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <f>E52*G52*D52</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>4</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f>E53*G53*D53</f>
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>4</v>
+      </c>
+      <c r="B54" s="6">
+        <v>5</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>11</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f>E54*G54*D54</f>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="B55" s="6">
+        <v>8</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>10</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f>E55*G55*D55</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>5</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E56" s="6">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <f>E56*G56*D56</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>5</v>
+      </c>
+      <c r="B57" s="6">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>10</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="6">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <f>E57*G57*D57</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>5</v>
+      </c>
+      <c r="B58" s="6">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>9</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="6">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <f>E58*G58*D58</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>5</v>
+      </c>
+      <c r="B59" s="6">
+        <v>3</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E59" s="6">
+        <v>11</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f>E59*G59*D59</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6">
+        <v>5</v>
+      </c>
+      <c r="C60" s="6">
+        <v>2</v>
+      </c>
+      <c r="D60" s="6">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>10</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f>E60*G60*D60</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>5</v>
+      </c>
+      <c r="B61" s="6">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>9</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f>E61*G61*D61</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>4.25</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <f>E62*G62*D62</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <f>E63*G63*D63</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <f>E64*G64*D64</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>4.25</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <f>E65*G65*D65</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <f>E66*G66*D66</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f>E67*G67*D67</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <f>E68*G68*D68</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <f>E69*G69*D69</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>11.5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <f>E70*G70*D70</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f>E71*G71*D71</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f>E72*G72*D72</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>11.5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f>E73*G73*D73</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <f>E74*G74*D74</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <f>E75*G75*D75</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>11.5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <f>E76*G76*D76</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f>E77*G77*D77</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f>E78*G78*D78</f>
         <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>11.5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f>E79*G79*D79</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>11.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <f>E80*G80*D80</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <f>E81*G81*D81</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <f>E82*G82*D82</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>11.5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f>E83*G83*D83</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f>E84*G84*D84</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f>E85*G85*D85</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <f>E86*G86*D86</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <f>E87*G87*D87</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <f>E88*G88*D88</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <f>E89*G89*D89</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>62</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <f>E90*G90*D90</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>62</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <f>E91*G91*D91</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1749,103 +4371,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C704EB3-BA6E-42B3-9F26-B59DA6C4D70E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0.75</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20A9702-080E-4483-BF42-CC18241074A9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>0.75</v>
-      </c>
-      <c r="D5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1859,6 +4724,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008250CD0DAEDDEC41A42000EE6E6A110C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d88224f8287061f8fcdd1b3ff780c338">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1cdf8168-4427-4b1b-b8da-1d079b8f27bd" xmlns:ns3="b082809a-7894-40f9-9a55-5f82667990ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cc87986e1605df57765702c3fede5f4" ns2:_="" ns3:_="">
     <xsd:import namespace="1cdf8168-4427-4b1b-b8da-1d079b8f27bd"/>
@@ -2063,20 +4934,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD700B14-86BD-42EF-973C-0265CD5D3ECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD700B14-86BD-42EF-973C-0265CD5D3ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB7937C-7E74-4C44-943B-9267A9000EF0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE473F73-713A-4788-B304-A97D15B00614}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1cdf8168-4427-4b1b-b8da-1d079b8f27bd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b082809a-7894-40f9-9a55-5f82667990ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE473F73-713A-4788-B304-A97D15B00614}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB7937C-7E74-4C44-943B-9267A9000EF0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1cdf8168-4427-4b1b-b8da-1d079b8f27bd"/>
+    <ds:schemaRef ds:uri="b082809a-7894-40f9-9a55-5f82667990ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>